--- a/Documentos/Calculos/Exemplo calculos.xlsx
+++ b/Documentos/Calculos/Exemplo calculos.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
@@ -16,7 +16,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'BALANÇO PATRIMONIAL'!$A$2:$D$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">DRE!$A$3:$D$3</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1582,7 +1582,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -1681,7 +1681,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1721,6 +1721,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF3F3F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2057,7 +2063,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2146,6 +2152,8 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2206,8 +2214,12 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="8" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
@@ -2220,6 +2232,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2227,7 +2242,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2265,9 +2280,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2302,7 +2317,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2337,7 +2352,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2532,7 +2547,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="32" t="s">
         <v>336</v>
       </c>
       <c r="B2" s="26" t="s">
@@ -2540,7 +2555,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="27" t="s">
         <v>413</v>
       </c>
@@ -2593,8 +2608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D183"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2603,12 +2618,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -3521,12 +3536,12 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="35" t="s">
+      <c r="A75" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="B75" s="36"/>
-      <c r="C75" s="36"/>
-      <c r="D75" s="37"/>
+      <c r="B75" s="38"/>
+      <c r="C75" s="38"/>
+      <c r="D75" s="39"/>
     </row>
     <row r="76" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="23" t="s">
@@ -4831,10 +4846,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="21">
@@ -4845,8 +4860,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="42"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="44"/>
       <c r="C2" s="6" t="s">
         <v>411</v>
       </c>
@@ -4855,8 +4870,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
-      <c r="B3" s="43"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="45"/>
       <c r="C3" s="22">
         <v>42004</v>
       </c>
@@ -5330,7 +5345,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5352,95 +5369,95 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="46" t="s">
         <v>344</v>
       </c>
-      <c r="B3" s="45"/>
+      <c r="B3" s="47"/>
       <c r="C3" s="12"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="52" t="s">
         <v>345</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="53">
         <f>(SUM('BALANÇO PATRIMONIAL'!C78,'BALANÇO PATRIMONIAL'!C119) /'BALANÇO PATRIMONIAL'!C157)  * 100</f>
         <v>90.872160385341402</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="50"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="30"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="52" t="s">
         <v>346</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="53">
         <f>('BALANÇO PATRIMONIAL'!C78 /SUM('BALANÇO PATRIMONIAL'!C78,'BALANÇO PATRIMONIAL'!C119))  * 100</f>
         <v>37.264824780628082</v>
       </c>
-      <c r="C5" s="16"/>
+      <c r="C5" s="53"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="52" t="s">
         <v>347</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="53">
         <f>(SUM('BALANÇO PATRIMONIAL'!C53,'BALANÇO PATRIMONIAL'!C59,'BALANÇO PATRIMONIAL'!C63)/'BALANÇO PATRIMONIAL'!C157)  * 100</f>
         <v>92.68009720323721</v>
       </c>
-      <c r="C6" s="16"/>
+      <c r="C6" s="53"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="48" t="s">
         <v>348</v>
       </c>
-      <c r="B7" s="47"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="14"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="52" t="s">
         <v>349</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="53">
         <f>SUM(INDICADORES!C4,'BALANÇO PATRIMONIAL'!C29)/ SUM('BALANÇO PATRIMONIAL'!C78,'BALANÇO PATRIMONIAL'!C119)</f>
         <v>0.41306936357252638</v>
       </c>
-      <c r="C8" s="16"/>
+      <c r="C8" s="53"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="52" t="s">
         <v>350</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="53">
         <f>'BALANÇO PATRIMONIAL'!C4/'BALANÇO PATRIMONIAL'!C78</f>
         <v>1.7911859081146746</v>
       </c>
-      <c r="C9" s="16"/>
+      <c r="C9" s="53"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="52" t="s">
         <v>351</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="53">
         <f>SUM('BALANÇO PATRIMONIAL'!C5,'BALANÇO PATRIMONIAL'!C6,'BALANÇO PATRIMONIAL'!C12)/'BALANÇO PATRIMONIAL'!C78</f>
         <v>1.3072502063139766</v>
       </c>
-      <c r="C10" s="16"/>
+      <c r="C10" s="53"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="52" t="s">
         <v>352</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="53">
         <f>'BALANÇO PATRIMONIAL'!C4-'BALANÇO PATRIMONIAL'!C78</f>
         <v>1234826</v>
       </c>
-      <c r="C11" s="16"/>
+      <c r="C11" s="53"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="48" t="s">
         <v>353</v>
       </c>
-      <c r="B12" s="47"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="14"/>
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5484,10 +5501,10 @@
       <c r="C16" s="16"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="50" t="s">
         <v>358</v>
       </c>
-      <c r="B17" s="49"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="14"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5509,7 +5526,7 @@
         <v>86.661230611465868</v>
       </c>
       <c r="C19" s="16"/>
-      <c r="H19" s="51"/>
+      <c r="H19" s="31"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">

--- a/Documentos/Calculos/Exemplo calculos.xlsx
+++ b/Documentos/Calculos/Exemplo calculos.xlsx
@@ -1726,7 +1726,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2101,26 +2101,14 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -2214,11 +2202,21 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="9" fillId="8" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2542,45 +2540,45 @@
       <c r="A1" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="21" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="28" t="s">
         <v>336</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="22" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="33"/>
-      <c r="B3" s="27" t="s">
+      <c r="A3" s="29"/>
+      <c r="B3" s="23" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="15" t="s">
         <v>338</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="24" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="15" t="s">
         <v>339</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="24" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="24" t="s">
         <v>416</v>
       </c>
     </row>
@@ -2588,7 +2586,7 @@
       <c r="A7" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="25" t="s">
         <v>417</v>
       </c>
     </row>
@@ -2606,82 +2604,87 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D183"/>
+  <dimension ref="A1:E183"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="26" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="36"/>
-    </row>
-    <row r="2" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="32"/>
+    </row>
+    <row r="2" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="14">
         <v>42004</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="14">
         <v>41639</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="16">
         <v>8797107</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="16">
         <v>8178327</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="48">
+        <f>SUM(C28,C4)</f>
+        <v>8797107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="16">
         <v>2795554</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="16">
         <v>2588905</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="16">
         <v>1081089</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="16">
         <v>996843</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -2691,7 +2694,7 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2701,7 +2704,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -2711,7 +2714,7 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -2721,7 +2724,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -2731,7 +2734,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -2741,73 +2744,73 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="16">
         <v>959173</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="16">
         <v>955739</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="16">
         <v>918330</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="16">
         <v>913362</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="16">
         <v>864435</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="16">
         <v>873956</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>366</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="16">
         <v>53895</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="16">
         <v>39406</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="16">
         <v>40843</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="16">
         <v>42377</v>
       </c>
     </row>
@@ -2818,10 +2821,10 @@
       <c r="B17" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="16">
         <v>40843</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="16">
         <v>42377</v>
       </c>
     </row>
@@ -2842,10 +2845,10 @@
       <c r="B19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="16">
         <v>650694</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="16">
         <v>546948</v>
       </c>
     </row>
@@ -2866,10 +2869,10 @@
       <c r="B21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="16">
         <v>96184</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="16">
         <v>80572</v>
       </c>
     </row>
@@ -2880,10 +2883,10 @@
       <c r="B22" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="16">
         <v>96184</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="16">
         <v>80572</v>
       </c>
     </row>
@@ -2904,10 +2907,10 @@
       <c r="B24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="16">
         <v>8414</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="16">
         <v>8803</v>
       </c>
     </row>
@@ -2931,7 +2934,7 @@
       <c r="C26" s="3">
         <v>0</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D26" s="16">
         <v>2070</v>
       </c>
     </row>
@@ -2942,10 +2945,10 @@
       <c r="B27" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="16">
         <v>8414</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D27" s="16">
         <v>6733</v>
       </c>
     </row>
@@ -2956,10 +2959,10 @@
       <c r="B28" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="20">
+      <c r="C28" s="16">
         <v>6001553</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D28" s="16">
         <v>5589422</v>
       </c>
     </row>
@@ -2970,10 +2973,10 @@
       <c r="B29" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="20">
+      <c r="C29" s="16">
         <v>1730020</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D29" s="16">
         <v>1436598</v>
       </c>
     </row>
@@ -3034,10 +3037,10 @@
       <c r="B35" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="20">
+      <c r="C35" s="16">
         <v>47127</v>
       </c>
-      <c r="D35" s="20">
+      <c r="D35" s="16">
         <v>62691</v>
       </c>
     </row>
@@ -3058,10 +3061,10 @@
       <c r="B37" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="20">
+      <c r="C37" s="16">
         <v>47127</v>
       </c>
-      <c r="D37" s="20">
+      <c r="D37" s="16">
         <v>62691</v>
       </c>
     </row>
@@ -3082,10 +3085,10 @@
       <c r="B39" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="20">
+      <c r="C39" s="16">
         <v>1354693</v>
       </c>
-      <c r="D39" s="20">
+      <c r="D39" s="16">
         <v>1125616</v>
       </c>
     </row>
@@ -3096,10 +3099,10 @@
       <c r="B40" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C40" s="20">
+      <c r="C40" s="16">
         <v>139244</v>
       </c>
-      <c r="D40" s="20">
+      <c r="D40" s="16">
         <v>61530</v>
       </c>
     </row>
@@ -3110,10 +3113,10 @@
       <c r="B41" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C41" s="20">
+      <c r="C41" s="16">
         <v>139244</v>
       </c>
-      <c r="D41" s="20">
+      <c r="D41" s="16">
         <v>61530</v>
       </c>
     </row>
@@ -3174,10 +3177,10 @@
       <c r="B47" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C47" s="20">
+      <c r="C47" s="16">
         <v>188956</v>
       </c>
-      <c r="D47" s="20">
+      <c r="D47" s="16">
         <v>186761</v>
       </c>
     </row>
@@ -3208,10 +3211,10 @@
       <c r="B50" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="C50" s="20">
+      <c r="C50" s="16">
         <v>40066</v>
       </c>
-      <c r="D50" s="20">
+      <c r="D50" s="16">
         <v>28290</v>
       </c>
     </row>
@@ -3222,10 +3225,10 @@
       <c r="B51" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="C51" s="20">
+      <c r="C51" s="16">
         <v>113666</v>
       </c>
-      <c r="D51" s="20">
+      <c r="D51" s="16">
         <v>107927</v>
       </c>
     </row>
@@ -3236,10 +3239,10 @@
       <c r="B52" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="C52" s="20">
+      <c r="C52" s="16">
         <v>35224</v>
       </c>
-      <c r="D52" s="20">
+      <c r="D52" s="16">
         <v>50544</v>
       </c>
     </row>
@@ -3250,10 +3253,10 @@
       <c r="B53" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C53" s="20">
+      <c r="C53" s="16">
         <v>1514</v>
       </c>
-      <c r="D53" s="20">
+      <c r="D53" s="16">
         <v>122218</v>
       </c>
     </row>
@@ -3264,10 +3267,10 @@
       <c r="B54" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C54" s="20">
+      <c r="C54" s="16">
         <v>1514</v>
       </c>
-      <c r="D54" s="20">
+      <c r="D54" s="16">
         <v>122218</v>
       </c>
     </row>
@@ -3281,7 +3284,7 @@
       <c r="C55" s="3">
         <v>0</v>
       </c>
-      <c r="D55" s="20">
+      <c r="D55" s="16">
         <v>121446</v>
       </c>
     </row>
@@ -3292,7 +3295,7 @@
       <c r="B56" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C56" s="20">
+      <c r="C56" s="16">
         <v>1514</v>
       </c>
       <c r="D56" s="3">
@@ -3326,10 +3329,10 @@
       <c r="B59" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C59" s="20">
+      <c r="C59" s="16">
         <v>3715882</v>
       </c>
-      <c r="D59" s="20">
+      <c r="D59" s="16">
         <v>3456787</v>
       </c>
     </row>
@@ -3340,10 +3343,10 @@
       <c r="B60" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C60" s="20">
+      <c r="C60" s="16">
         <v>3453714</v>
       </c>
-      <c r="D60" s="20">
+      <c r="D60" s="16">
         <v>3080175</v>
       </c>
     </row>
@@ -3364,10 +3367,10 @@
       <c r="B62" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C62" s="20">
+      <c r="C62" s="16">
         <v>262168</v>
       </c>
-      <c r="D62" s="20">
+      <c r="D62" s="16">
         <v>376612</v>
       </c>
     </row>
@@ -3378,10 +3381,10 @@
       <c r="B63" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C63" s="20">
+      <c r="C63" s="16">
         <v>554137</v>
       </c>
-      <c r="D63" s="20">
+      <c r="D63" s="16">
         <v>573819</v>
       </c>
     </row>
@@ -3392,10 +3395,10 @@
       <c r="B64" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C64" s="20">
+      <c r="C64" s="16">
         <v>299339</v>
       </c>
-      <c r="D64" s="20">
+      <c r="D64" s="16">
         <v>319021</v>
       </c>
     </row>
@@ -3416,10 +3419,10 @@
       <c r="B66" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="C66" s="20">
+      <c r="C66" s="16">
         <v>278826</v>
       </c>
-      <c r="D66" s="20">
+      <c r="D66" s="16">
         <v>290177</v>
       </c>
     </row>
@@ -3430,10 +3433,10 @@
       <c r="B67" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="C67" s="20">
+      <c r="C67" s="16">
         <v>20513</v>
       </c>
-      <c r="D67" s="20">
+      <c r="D67" s="16">
         <v>28844</v>
       </c>
     </row>
@@ -3444,10 +3447,10 @@
       <c r="B68" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C68" s="20">
+      <c r="C68" s="16">
         <v>254798</v>
       </c>
-      <c r="D68" s="20">
+      <c r="D68" s="16">
         <v>254798</v>
       </c>
     </row>
@@ -3458,10 +3461,10 @@
       <c r="B69" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="C69" s="20">
+      <c r="C69" s="16">
         <v>187573</v>
       </c>
-      <c r="D69" s="20">
+      <c r="D69" s="16">
         <v>187573</v>
       </c>
     </row>
@@ -3472,10 +3475,10 @@
       <c r="B70" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="C70" s="20">
+      <c r="C70" s="16">
         <v>22154</v>
       </c>
-      <c r="D70" s="20">
+      <c r="D70" s="16">
         <v>22154</v>
       </c>
     </row>
@@ -3486,10 +3489,10 @@
       <c r="B71" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="C71" s="20">
+      <c r="C71" s="16">
         <v>17092</v>
       </c>
-      <c r="D71" s="20">
+      <c r="D71" s="16">
         <v>17092</v>
       </c>
     </row>
@@ -3500,10 +3503,10 @@
       <c r="B72" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="C72" s="20">
+      <c r="C72" s="16">
         <v>2402</v>
       </c>
-      <c r="D72" s="20">
+      <c r="D72" s="16">
         <v>2402</v>
       </c>
     </row>
@@ -3514,10 +3517,10 @@
       <c r="B73" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C73" s="20">
+      <c r="C73" s="16">
         <v>25577</v>
       </c>
-      <c r="D73" s="20">
+      <c r="D73" s="16">
         <v>25577</v>
       </c>
     </row>
@@ -3536,24 +3539,24 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="37" t="s">
+      <c r="A75" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="B75" s="38"/>
-      <c r="C75" s="38"/>
-      <c r="D75" s="39"/>
+      <c r="B75" s="34"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="35"/>
     </row>
     <row r="76" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="23" t="s">
+      <c r="A76" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B76" s="23" t="s">
+      <c r="B76" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C76" s="24">
+      <c r="C76" s="20">
         <v>42004</v>
       </c>
-      <c r="D76" s="24">
+      <c r="D76" s="20">
         <v>41639</v>
       </c>
     </row>
@@ -3564,10 +3567,10 @@
       <c r="B77" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C77" s="20">
+      <c r="C77" s="16">
         <v>8797107</v>
       </c>
-      <c r="D77" s="20">
+      <c r="D77" s="16">
         <v>8178327</v>
       </c>
     </row>
@@ -3578,10 +3581,10 @@
       <c r="B78" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C78" s="20">
+      <c r="C78" s="16">
         <v>1560728</v>
       </c>
-      <c r="D78" s="20">
+      <c r="D78" s="16">
         <v>1305132</v>
       </c>
     </row>
@@ -3592,10 +3595,10 @@
       <c r="B79" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C79" s="20">
+      <c r="C79" s="16">
         <v>149659</v>
       </c>
-      <c r="D79" s="20">
+      <c r="D79" s="16">
         <v>138462</v>
       </c>
     </row>
@@ -3606,8 +3609,8 @@
       <c r="B80" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C80" s="20"/>
-      <c r="D80" s="20"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
     </row>
     <row r="81" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
@@ -3616,8 +3619,8 @@
       <c r="B81" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C81" s="20"/>
-      <c r="D81" s="20"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
     </row>
     <row r="82" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
@@ -3626,10 +3629,10 @@
       <c r="B82" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C82" s="20">
+      <c r="C82" s="16">
         <v>166832</v>
       </c>
-      <c r="D82" s="20">
+      <c r="D82" s="16">
         <v>180167</v>
       </c>
     </row>
@@ -3640,8 +3643,8 @@
       <c r="B83" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C83" s="20"/>
-      <c r="D83" s="20"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
     </row>
     <row r="84" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
@@ -3650,8 +3653,8 @@
       <c r="B84" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C84" s="20"/>
-      <c r="D84" s="20"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
     </row>
     <row r="85" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
@@ -3660,10 +3663,10 @@
       <c r="B85" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C85" s="20">
+      <c r="C85" s="16">
         <v>57758</v>
       </c>
-      <c r="D85" s="20">
+      <c r="D85" s="16">
         <v>79426</v>
       </c>
     </row>
@@ -3674,8 +3677,8 @@
       <c r="B86" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C86" s="20"/>
-      <c r="D86" s="20"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="16"/>
     </row>
     <row r="87" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
@@ -3684,8 +3687,8 @@
       <c r="B87" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C87" s="20"/>
-      <c r="D87" s="20"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="16"/>
     </row>
     <row r="88" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
@@ -3694,8 +3697,8 @@
       <c r="B88" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C88" s="20"/>
-      <c r="D88" s="20"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="16"/>
     </row>
     <row r="89" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
@@ -3704,8 +3707,8 @@
       <c r="B89" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C89" s="20"/>
-      <c r="D89" s="20"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="16"/>
     </row>
     <row r="90" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
@@ -3714,10 +3717,10 @@
       <c r="B90" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C90" s="20">
+      <c r="C90" s="16">
         <v>1015610</v>
       </c>
-      <c r="D90" s="20">
+      <c r="D90" s="16">
         <v>716373</v>
       </c>
     </row>
@@ -3728,10 +3731,10 @@
       <c r="B91" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C91" s="20">
+      <c r="C91" s="16">
         <v>1008909</v>
       </c>
-      <c r="D91" s="20">
+      <c r="D91" s="16">
         <v>710075</v>
       </c>
     </row>
@@ -3742,10 +3745,10 @@
       <c r="B92" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C92" s="20">
+      <c r="C92" s="16">
         <v>763861</v>
       </c>
-      <c r="D92" s="20">
+      <c r="D92" s="16">
         <v>694716</v>
       </c>
     </row>
@@ -3756,10 +3759,10 @@
       <c r="B93" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C93" s="20">
+      <c r="C93" s="16">
         <v>245048</v>
       </c>
-      <c r="D93" s="20">
+      <c r="D93" s="16">
         <v>15359</v>
       </c>
     </row>
@@ -3770,10 +3773,10 @@
       <c r="B94" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C94" s="20">
+      <c r="C94" s="16">
         <v>6701</v>
       </c>
-      <c r="D94" s="20">
+      <c r="D94" s="16">
         <v>6298</v>
       </c>
     </row>
@@ -3784,8 +3787,8 @@
       <c r="B95" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C95" s="20"/>
-      <c r="D95" s="20"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="16"/>
     </row>
     <row r="96" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
@@ -3794,10 +3797,10 @@
       <c r="B96" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C96" s="20">
+      <c r="C96" s="16">
         <v>170869</v>
       </c>
-      <c r="D96" s="20">
+      <c r="D96" s="16">
         <v>189519</v>
       </c>
     </row>
@@ -3808,8 +3811,8 @@
       <c r="B97" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C97" s="20"/>
-      <c r="D97" s="20"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="16"/>
     </row>
     <row r="98" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
@@ -3818,8 +3821,8 @@
       <c r="B98" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C98" s="20"/>
-      <c r="D98" s="20"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="16"/>
     </row>
     <row r="99" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
@@ -3828,8 +3831,8 @@
       <c r="B99" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C99" s="20"/>
-      <c r="D99" s="20"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="16"/>
     </row>
     <row r="100" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
@@ -3838,8 +3841,8 @@
       <c r="B100" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C100" s="20"/>
-      <c r="D100" s="20"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="16"/>
     </row>
     <row r="101" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
@@ -3848,10 +3851,10 @@
       <c r="B101" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C101" s="20">
+      <c r="C101" s="16">
         <v>170869</v>
       </c>
-      <c r="D101" s="20">
+      <c r="D101" s="16">
         <v>189519</v>
       </c>
     </row>
@@ -3862,10 +3865,10 @@
       <c r="B102" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C102" s="20">
+      <c r="C102" s="16">
         <v>57385</v>
       </c>
-      <c r="D102" s="20">
+      <c r="D102" s="16">
         <v>78697</v>
       </c>
     </row>
@@ -3876,8 +3879,8 @@
       <c r="B103" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C103" s="20"/>
-      <c r="D103" s="20"/>
+      <c r="C103" s="16"/>
+      <c r="D103" s="16"/>
     </row>
     <row r="104" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
@@ -3886,8 +3889,8 @@
       <c r="B104" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C104" s="20"/>
-      <c r="D104" s="20"/>
+      <c r="C104" s="16"/>
+      <c r="D104" s="16"/>
     </row>
     <row r="105" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
@@ -3896,10 +3899,10 @@
       <c r="B105" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="C105" s="20">
+      <c r="C105" s="16">
         <v>113484</v>
       </c>
-      <c r="D105" s="20">
+      <c r="D105" s="16">
         <v>110822</v>
       </c>
     </row>
@@ -3910,8 +3913,8 @@
       <c r="B106" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C106" s="20"/>
-      <c r="D106" s="20"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="16"/>
     </row>
     <row r="107" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
@@ -3920,8 +3923,8 @@
       <c r="B107" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C107" s="20"/>
-      <c r="D107" s="20"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="16"/>
     </row>
     <row r="108" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
@@ -3930,8 +3933,8 @@
       <c r="B108" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C108" s="20"/>
-      <c r="D108" s="20"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="16"/>
     </row>
     <row r="109" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
@@ -3940,8 +3943,8 @@
       <c r="B109" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C109" s="20"/>
-      <c r="D109" s="20"/>
+      <c r="C109" s="16"/>
+      <c r="D109" s="16"/>
     </row>
     <row r="110" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
@@ -3950,8 +3953,8 @@
       <c r="B110" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C110" s="20"/>
-      <c r="D110" s="20"/>
+      <c r="C110" s="16"/>
+      <c r="D110" s="16"/>
     </row>
     <row r="111" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
@@ -3960,8 +3963,8 @@
       <c r="B111" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C111" s="20"/>
-      <c r="D111" s="20"/>
+      <c r="C111" s="16"/>
+      <c r="D111" s="16"/>
     </row>
     <row r="112" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
@@ -3970,8 +3973,8 @@
       <c r="B112" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C112" s="20"/>
-      <c r="D112" s="20"/>
+      <c r="C112" s="16"/>
+      <c r="D112" s="16"/>
     </row>
     <row r="113" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
@@ -3980,8 +3983,8 @@
       <c r="B113" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C113" s="20"/>
-      <c r="D113" s="20"/>
+      <c r="C113" s="16"/>
+      <c r="D113" s="16"/>
     </row>
     <row r="114" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
@@ -3990,8 +3993,8 @@
       <c r="B114" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C114" s="20"/>
-      <c r="D114" s="20"/>
+      <c r="C114" s="16"/>
+      <c r="D114" s="16"/>
     </row>
     <row r="115" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
@@ -4000,8 +4003,8 @@
       <c r="B115" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C115" s="20"/>
-      <c r="D115" s="20"/>
+      <c r="C115" s="16"/>
+      <c r="D115" s="16"/>
     </row>
     <row r="116" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
@@ -4010,10 +4013,10 @@
       <c r="B116" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C116" s="20">
+      <c r="C116" s="16">
         <v>0</v>
       </c>
-      <c r="D116" s="20">
+      <c r="D116" s="16">
         <v>1185</v>
       </c>
     </row>
@@ -4024,8 +4027,8 @@
       <c r="B117" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C117" s="20"/>
-      <c r="D117" s="20"/>
+      <c r="C117" s="16"/>
+      <c r="D117" s="16"/>
     </row>
     <row r="118" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
@@ -4034,10 +4037,10 @@
       <c r="B118" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C118" s="20">
+      <c r="C118" s="16">
         <v>0</v>
       </c>
-      <c r="D118" s="20">
+      <c r="D118" s="16">
         <v>1185</v>
       </c>
     </row>
@@ -4048,10 +4051,10 @@
       <c r="B119" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C119" s="20">
+      <c r="C119" s="16">
         <v>2627479</v>
       </c>
-      <c r="D119" s="20">
+      <c r="D119" s="16">
         <v>2508190</v>
       </c>
     </row>
@@ -4062,10 +4065,10 @@
       <c r="B120" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C120" s="20">
+      <c r="C120" s="16">
         <v>1792233</v>
       </c>
-      <c r="D120" s="20">
+      <c r="D120" s="16">
         <v>1734468</v>
       </c>
     </row>
@@ -4076,10 +4079,10 @@
       <c r="B121" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C121" s="20">
+      <c r="C121" s="16">
         <v>1675906</v>
       </c>
-      <c r="D121" s="20">
+      <c r="D121" s="16">
         <v>1625525</v>
       </c>
     </row>
@@ -4090,10 +4093,10 @@
       <c r="B122" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C122" s="20">
+      <c r="C122" s="16">
         <v>1141326</v>
       </c>
-      <c r="D122" s="20">
+      <c r="D122" s="16">
         <v>1160549</v>
       </c>
     </row>
@@ -4104,10 +4107,10 @@
       <c r="B123" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C123" s="20">
+      <c r="C123" s="16">
         <v>534580</v>
       </c>
-      <c r="D123" s="20">
+      <c r="D123" s="16">
         <v>464976</v>
       </c>
     </row>
@@ -4118,10 +4121,10 @@
       <c r="B124" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C124" s="20">
+      <c r="C124" s="16">
         <v>116327</v>
       </c>
-      <c r="D124" s="20">
+      <c r="D124" s="16">
         <v>108943</v>
       </c>
     </row>
@@ -4132,8 +4135,8 @@
       <c r="B125" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C125" s="20"/>
-      <c r="D125" s="20"/>
+      <c r="C125" s="16"/>
+      <c r="D125" s="16"/>
     </row>
     <row r="126" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
@@ -4142,10 +4145,10 @@
       <c r="B126" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C126" s="20">
+      <c r="C126" s="16">
         <v>137286</v>
       </c>
-      <c r="D126" s="20">
+      <c r="D126" s="16">
         <v>144321</v>
       </c>
     </row>
@@ -4156,8 +4159,8 @@
       <c r="B127" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C127" s="20"/>
-      <c r="D127" s="20"/>
+      <c r="C127" s="16"/>
+      <c r="D127" s="16"/>
     </row>
     <row r="128" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
@@ -4166,8 +4169,8 @@
       <c r="B128" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C128" s="20"/>
-      <c r="D128" s="20"/>
+      <c r="C128" s="16"/>
+      <c r="D128" s="16"/>
     </row>
     <row r="129" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
@@ -4176,8 +4179,8 @@
       <c r="B129" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C129" s="20"/>
-      <c r="D129" s="20"/>
+      <c r="C129" s="16"/>
+      <c r="D129" s="16"/>
     </row>
     <row r="130" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
@@ -4186,8 +4189,8 @@
       <c r="B130" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C130" s="20"/>
-      <c r="D130" s="20"/>
+      <c r="C130" s="16"/>
+      <c r="D130" s="16"/>
     </row>
     <row r="131" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
@@ -4196,10 +4199,10 @@
       <c r="B131" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C131" s="20">
+      <c r="C131" s="16">
         <v>137286</v>
       </c>
-      <c r="D131" s="20">
+      <c r="D131" s="16">
         <v>144321</v>
       </c>
     </row>
@@ -4210,8 +4213,8 @@
       <c r="B132" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C132" s="20"/>
-      <c r="D132" s="20"/>
+      <c r="C132" s="16"/>
+      <c r="D132" s="16"/>
     </row>
     <row r="133" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
@@ -4220,8 +4223,8 @@
       <c r="B133" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C133" s="20"/>
-      <c r="D133" s="20"/>
+      <c r="C133" s="16"/>
+      <c r="D133" s="16"/>
     </row>
     <row r="134" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
@@ -4230,8 +4233,8 @@
       <c r="B134" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="C134" s="20"/>
-      <c r="D134" s="20"/>
+      <c r="C134" s="16"/>
+      <c r="D134" s="16"/>
     </row>
     <row r="135" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
@@ -4240,10 +4243,10 @@
       <c r="B135" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="C135" s="20">
+      <c r="C135" s="16">
         <v>137286</v>
       </c>
-      <c r="D135" s="20">
+      <c r="D135" s="16">
         <v>144321</v>
       </c>
     </row>
@@ -4254,10 +4257,10 @@
       <c r="B136" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="C136" s="20">
+      <c r="C136" s="16">
         <v>0</v>
       </c>
-      <c r="D136" s="20">
+      <c r="D136" s="16">
         <v>0</v>
       </c>
     </row>
@@ -4268,10 +4271,10 @@
       <c r="B137" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C137" s="20">
+      <c r="C137" s="16">
         <v>610706</v>
       </c>
-      <c r="D137" s="20">
+      <c r="D137" s="16">
         <v>505593</v>
       </c>
     </row>
@@ -4282,10 +4285,10 @@
       <c r="B138" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C138" s="20">
+      <c r="C138" s="16">
         <v>610706</v>
       </c>
-      <c r="D138" s="20">
+      <c r="D138" s="16">
         <v>505593</v>
       </c>
     </row>
@@ -4296,10 +4299,10 @@
       <c r="B139" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C139" s="20">
+      <c r="C139" s="16">
         <v>87254</v>
       </c>
-      <c r="D139" s="20">
+      <c r="D139" s="16">
         <v>123808</v>
       </c>
     </row>
@@ -4310,10 +4313,10 @@
       <c r="B140" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C140" s="20">
+      <c r="C140" s="16">
         <v>87254</v>
       </c>
-      <c r="D140" s="20">
+      <c r="D140" s="16">
         <v>123808</v>
       </c>
     </row>
@@ -4324,10 +4327,10 @@
       <c r="B141" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C141" s="20">
+      <c r="C141" s="16">
         <v>52006</v>
       </c>
-      <c r="D141" s="20">
+      <c r="D141" s="16">
         <v>97238</v>
       </c>
     </row>
@@ -4338,10 +4341,10 @@
       <c r="B142" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C142" s="20">
+      <c r="C142" s="16">
         <v>33313</v>
       </c>
-      <c r="D142" s="20">
+      <c r="D142" s="16">
         <v>26105</v>
       </c>
     </row>
@@ -4352,8 +4355,8 @@
       <c r="B143" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C143" s="20"/>
-      <c r="D143" s="20"/>
+      <c r="C143" s="16"/>
+      <c r="D143" s="16"/>
     </row>
     <row r="144" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
@@ -4362,10 +4365,10 @@
       <c r="B144" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C144" s="20">
+      <c r="C144" s="16">
         <v>1935</v>
       </c>
-      <c r="D144" s="20">
+      <c r="D144" s="16">
         <v>465</v>
       </c>
     </row>
@@ -4376,10 +4379,10 @@
       <c r="B145" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="C145" s="20">
+      <c r="C145" s="16">
         <v>0</v>
       </c>
-      <c r="D145" s="20">
+      <c r="D145" s="16">
         <v>0</v>
       </c>
     </row>
@@ -4390,8 +4393,8 @@
       <c r="B146" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C146" s="20"/>
-      <c r="D146" s="20"/>
+      <c r="C146" s="16"/>
+      <c r="D146" s="16"/>
     </row>
     <row r="147" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
@@ -4400,8 +4403,8 @@
       <c r="B147" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C147" s="20"/>
-      <c r="D147" s="20"/>
+      <c r="C147" s="16"/>
+      <c r="D147" s="16"/>
     </row>
     <row r="148" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
@@ -4410,8 +4413,8 @@
       <c r="B148" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C148" s="20"/>
-      <c r="D148" s="20"/>
+      <c r="C148" s="16"/>
+      <c r="D148" s="16"/>
     </row>
     <row r="149" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
@@ -4420,8 +4423,8 @@
       <c r="B149" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C149" s="20"/>
-      <c r="D149" s="20"/>
+      <c r="C149" s="16"/>
+      <c r="D149" s="16"/>
     </row>
     <row r="150" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
@@ -4430,8 +4433,8 @@
       <c r="B150" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C150" s="20"/>
-      <c r="D150" s="20"/>
+      <c r="C150" s="16"/>
+      <c r="D150" s="16"/>
     </row>
     <row r="151" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
@@ -4440,8 +4443,8 @@
       <c r="B151" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C151" s="20"/>
-      <c r="D151" s="20"/>
+      <c r="C151" s="16"/>
+      <c r="D151" s="16"/>
     </row>
     <row r="152" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
@@ -4450,8 +4453,8 @@
       <c r="B152" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C152" s="20"/>
-      <c r="D152" s="20"/>
+      <c r="C152" s="16"/>
+      <c r="D152" s="16"/>
     </row>
     <row r="153" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
@@ -4460,8 +4463,8 @@
       <c r="B153" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C153" s="20"/>
-      <c r="D153" s="20"/>
+      <c r="C153" s="16"/>
+      <c r="D153" s="16"/>
     </row>
     <row r="154" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
@@ -4470,8 +4473,8 @@
       <c r="B154" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C154" s="20"/>
-      <c r="D154" s="20"/>
+      <c r="C154" s="16"/>
+      <c r="D154" s="16"/>
     </row>
     <row r="155" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
@@ -4480,8 +4483,8 @@
       <c r="B155" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C155" s="20"/>
-      <c r="D155" s="20"/>
+      <c r="C155" s="16"/>
+      <c r="D155" s="16"/>
     </row>
     <row r="156" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
@@ -4490,8 +4493,8 @@
       <c r="B156" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C156" s="20"/>
-      <c r="D156" s="20"/>
+      <c r="C156" s="16"/>
+      <c r="D156" s="16"/>
     </row>
     <row r="157" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
@@ -4500,10 +4503,10 @@
       <c r="B157" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C157" s="20">
+      <c r="C157" s="16">
         <v>4608900</v>
       </c>
-      <c r="D157" s="20">
+      <c r="D157" s="16">
         <v>4365005</v>
       </c>
     </row>
@@ -4514,10 +4517,10 @@
       <c r="B158" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C158" s="20">
+      <c r="C158" s="16">
         <v>1867977</v>
       </c>
-      <c r="D158" s="20">
+      <c r="D158" s="16">
         <v>1697449</v>
       </c>
     </row>
@@ -4528,10 +4531,10 @@
       <c r="B159" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="C159" s="20">
+      <c r="C159" s="16">
         <v>1875800</v>
       </c>
-      <c r="D159" s="20">
+      <c r="D159" s="16">
         <v>1705272</v>
       </c>
     </row>
@@ -4542,10 +4545,10 @@
       <c r="B160" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="C160" s="20">
+      <c r="C160" s="16">
         <v>-7823</v>
       </c>
-      <c r="D160" s="20">
+      <c r="D160" s="16">
         <v>-7823</v>
       </c>
     </row>
@@ -4556,10 +4559,10 @@
       <c r="B161" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C161" s="20">
+      <c r="C161" s="16">
         <v>331616</v>
       </c>
-      <c r="D161" s="20">
+      <c r="D161" s="16">
         <v>323342</v>
       </c>
     </row>
@@ -4570,8 +4573,8 @@
       <c r="B162" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C162" s="20"/>
-      <c r="D162" s="20"/>
+      <c r="C162" s="16"/>
+      <c r="D162" s="16"/>
     </row>
     <row r="163" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
@@ -4580,8 +4583,8 @@
       <c r="B163" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C163" s="20"/>
-      <c r="D163" s="20"/>
+      <c r="C163" s="16"/>
+      <c r="D163" s="16"/>
     </row>
     <row r="164" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
@@ -4590,8 +4593,8 @@
       <c r="B164" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C164" s="20"/>
-      <c r="D164" s="20"/>
+      <c r="C164" s="16"/>
+      <c r="D164" s="16"/>
     </row>
     <row r="165" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
@@ -4600,8 +4603,8 @@
       <c r="B165" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C165" s="20"/>
-      <c r="D165" s="20"/>
+      <c r="C165" s="16"/>
+      <c r="D165" s="16"/>
     </row>
     <row r="166" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
@@ -4610,8 +4613,8 @@
       <c r="B166" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C166" s="20"/>
-      <c r="D166" s="20"/>
+      <c r="C166" s="16"/>
+      <c r="D166" s="16"/>
     </row>
     <row r="167" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
@@ -4620,8 +4623,8 @@
       <c r="B167" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C167" s="20"/>
-      <c r="D167" s="20"/>
+      <c r="C167" s="16"/>
+      <c r="D167" s="16"/>
     </row>
     <row r="168" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
@@ -4630,10 +4633,10 @@
       <c r="B168" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C168" s="20">
+      <c r="C168" s="16">
         <v>70207</v>
       </c>
-      <c r="D168" s="20">
+      <c r="D168" s="16">
         <v>74993</v>
       </c>
     </row>
@@ -4644,10 +4647,10 @@
       <c r="B169" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C169" s="20">
+      <c r="C169" s="16">
         <v>1868453</v>
       </c>
-      <c r="D169" s="20">
+      <c r="D169" s="16">
         <v>1841851</v>
       </c>
     </row>
@@ -4658,10 +4661,10 @@
       <c r="B170" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C170" s="20">
+      <c r="C170" s="16">
         <v>164529</v>
       </c>
-      <c r="D170" s="20">
+      <c r="D170" s="16">
         <v>145012</v>
       </c>
     </row>
@@ -4672,10 +4675,10 @@
       <c r="B171" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C171" s="20">
+      <c r="C171" s="16">
         <v>1696772</v>
       </c>
-      <c r="D171" s="20">
+      <c r="D171" s="16">
         <v>1639243</v>
       </c>
     </row>
@@ -4686,8 +4689,8 @@
       <c r="B172" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C172" s="20"/>
-      <c r="D172" s="20"/>
+      <c r="C172" s="16"/>
+      <c r="D172" s="16"/>
     </row>
     <row r="173" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
@@ -4696,8 +4699,8 @@
       <c r="B173" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C173" s="20"/>
-      <c r="D173" s="20"/>
+      <c r="C173" s="16"/>
+      <c r="D173" s="16"/>
     </row>
     <row r="174" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
@@ -4706,8 +4709,8 @@
       <c r="B174" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C174" s="20"/>
-      <c r="D174" s="20"/>
+      <c r="C174" s="16"/>
+      <c r="D174" s="16"/>
     </row>
     <row r="175" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
@@ -4716,8 +4719,8 @@
       <c r="B175" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C175" s="20"/>
-      <c r="D175" s="20"/>
+      <c r="C175" s="16"/>
+      <c r="D175" s="16"/>
     </row>
     <row r="176" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
@@ -4726,10 +4729,10 @@
       <c r="B176" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C176" s="20">
+      <c r="C176" s="16">
         <v>35083</v>
       </c>
-      <c r="D176" s="20">
+      <c r="D176" s="16">
         <v>26610</v>
       </c>
     </row>
@@ -4740,10 +4743,10 @@
       <c r="B177" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C177" s="20">
+      <c r="C177" s="16">
         <v>0</v>
       </c>
-      <c r="D177" s="20">
+      <c r="D177" s="16">
         <v>49330</v>
       </c>
     </row>
@@ -4754,10 +4757,10 @@
       <c r="B178" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C178" s="20">
+      <c r="C178" s="16">
         <v>-27931</v>
       </c>
-      <c r="D178" s="20">
+      <c r="D178" s="16">
         <v>-18344</v>
       </c>
     </row>
@@ -4768,8 +4771,8 @@
       <c r="B179" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C179" s="20"/>
-      <c r="D179" s="20"/>
+      <c r="C179" s="16"/>
+      <c r="D179" s="16"/>
     </row>
     <row r="180" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
@@ -4778,10 +4781,10 @@
       <c r="B180" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C180" s="20">
+      <c r="C180" s="16">
         <v>404846</v>
       </c>
-      <c r="D180" s="20">
+      <c r="D180" s="16">
         <v>427370</v>
       </c>
     </row>
@@ -4792,8 +4795,8 @@
       <c r="B181" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C181" s="20"/>
-      <c r="D181" s="20"/>
+      <c r="C181" s="16"/>
+      <c r="D181" s="16"/>
     </row>
     <row r="182" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
@@ -4802,8 +4805,8 @@
       <c r="B182" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C182" s="20"/>
-      <c r="D182" s="20"/>
+      <c r="C182" s="16"/>
+      <c r="D182" s="16"/>
     </row>
     <row r="183" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
@@ -4812,10 +4815,10 @@
       <c r="B183" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C183" s="20">
+      <c r="C183" s="16">
         <v>65801</v>
       </c>
-      <c r="D183" s="20">
+      <c r="D183" s="16">
         <v>0</v>
       </c>
     </row>
@@ -4835,7 +4838,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4846,22 +4849,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21">
+      <c r="C1" s="17">
         <v>41640</v>
       </c>
-      <c r="D1" s="21">
+      <c r="D1" s="17">
         <v>41275</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="44"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="6" t="s">
         <v>411</v>
       </c>
@@ -4870,26 +4873,26 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="22">
+      <c r="A3" s="38"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="18">
         <v>42004</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="18">
         <v>41639</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="51" t="s">
         <v>276</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="16">
         <v>3984507</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="16">
         <v>3872705</v>
       </c>
     </row>
@@ -4900,10 +4903,10 @@
       <c r="B5" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="16">
         <v>-2767318</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="16">
         <v>-2429038</v>
       </c>
     </row>
@@ -4914,10 +4917,10 @@
       <c r="B6" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="16">
         <v>221135</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="16">
         <v>191519</v>
       </c>
     </row>
@@ -4928,10 +4931,10 @@
       <c r="B7" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="16">
         <v>-2988453</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="16">
         <v>-2620557</v>
       </c>
     </row>
@@ -4942,10 +4945,10 @@
       <c r="B8" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="16">
         <v>1217189</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="16">
         <v>1443667</v>
       </c>
     </row>
@@ -4956,10 +4959,10 @@
       <c r="B9" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="16">
         <v>-596970</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="16">
         <v>-621688</v>
       </c>
     </row>
@@ -4970,10 +4973,10 @@
       <c r="B10" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="16">
         <v>-524218</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="16">
         <v>-445816</v>
       </c>
     </row>
@@ -4984,10 +4987,10 @@
       <c r="B11" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="16">
         <v>-152902</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="16">
         <v>-142331</v>
       </c>
     </row>
@@ -4998,10 +5001,10 @@
       <c r="B12" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="16">
         <v>-136034</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="16">
         <v>-127898</v>
       </c>
     </row>
@@ -5012,10 +5015,10 @@
       <c r="B13" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="16">
         <v>-16868</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="16">
         <v>-14433</v>
       </c>
     </row>
@@ -5036,7 +5039,7 @@
       <c r="B15" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="16">
         <v>79484</v>
       </c>
       <c r="D15" s="3">
@@ -5053,7 +5056,7 @@
       <c r="C16" s="3">
         <v>0</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="16">
         <v>-36284</v>
       </c>
     </row>
@@ -5067,7 +5070,7 @@
       <c r="C17" s="3">
         <v>666</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="16">
         <v>2743</v>
       </c>
     </row>
@@ -5078,10 +5081,10 @@
       <c r="B18" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="16">
         <v>620219</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="16">
         <v>821979</v>
       </c>
     </row>
@@ -5092,10 +5095,10 @@
       <c r="B19" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="16">
         <v>-175142</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="16">
         <v>-116965</v>
       </c>
     </row>
@@ -5106,10 +5109,10 @@
       <c r="B20" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="16">
         <v>142644</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="16">
         <v>102656</v>
       </c>
     </row>
@@ -5120,10 +5123,10 @@
       <c r="B21" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="16">
         <v>-317786</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="16">
         <v>-219621</v>
       </c>
     </row>
@@ -5134,10 +5137,10 @@
       <c r="B22" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="16">
         <v>445077</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="16">
         <v>705014</v>
       </c>
     </row>
@@ -5148,10 +5151,10 @@
       <c r="B23" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="16">
         <v>-51517</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="16">
         <v>-170510</v>
       </c>
     </row>
@@ -5162,10 +5165,10 @@
       <c r="B24" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="16">
         <v>-73331</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="16">
         <v>-155797</v>
       </c>
     </row>
@@ -5176,24 +5179,24 @@
       <c r="B25" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="16">
         <v>21814</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="16">
         <v>-14713</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="51" t="s">
         <v>312</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="16">
         <v>393560</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D26" s="16">
         <v>534504</v>
       </c>
     </row>
@@ -5207,7 +5210,7 @@
       <c r="C27" s="3">
         <v>0</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D27" s="16">
         <v>-14362</v>
       </c>
     </row>
@@ -5238,10 +5241,10 @@
       <c r="B30" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C30" s="20">
+      <c r="C30" s="16">
         <v>393560</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D30" s="16">
         <v>520142</v>
       </c>
     </row>
@@ -5252,10 +5255,10 @@
       <c r="B31" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="16">
         <v>390349</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31" s="16">
         <v>519920</v>
       </c>
     </row>
@@ -5266,7 +5269,7 @@
       <c r="B32" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32" s="16">
         <v>3211</v>
       </c>
       <c r="D32" s="3">
@@ -5345,8 +5348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5369,194 +5372,194 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="42" t="s">
         <v>344</v>
       </c>
-      <c r="B3" s="47"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="12"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="49" t="s">
         <v>345</v>
       </c>
-      <c r="B4" s="53">
+      <c r="B4" s="50">
         <f>(SUM('BALANÇO PATRIMONIAL'!C78,'BALANÇO PATRIMONIAL'!C119) /'BALANÇO PATRIMONIAL'!C157)  * 100</f>
         <v>90.872160385341402</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="30"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="26"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="49" t="s">
         <v>346</v>
       </c>
-      <c r="B5" s="53">
+      <c r="B5" s="50">
         <f>('BALANÇO PATRIMONIAL'!C78 /SUM('BALANÇO PATRIMONIAL'!C78,'BALANÇO PATRIMONIAL'!C119))  * 100</f>
         <v>37.264824780628082</v>
       </c>
-      <c r="C5" s="53"/>
+      <c r="C5" s="50"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="49" t="s">
         <v>347</v>
       </c>
-      <c r="B6" s="53">
+      <c r="B6" s="50">
         <f>(SUM('BALANÇO PATRIMONIAL'!C53,'BALANÇO PATRIMONIAL'!C59,'BALANÇO PATRIMONIAL'!C63)/'BALANÇO PATRIMONIAL'!C157)  * 100</f>
         <v>92.68009720323721</v>
       </c>
-      <c r="C6" s="53"/>
+      <c r="C6" s="50"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="44" t="s">
         <v>348</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="14"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="13"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="49" t="s">
         <v>349</v>
       </c>
-      <c r="B8" s="53">
+      <c r="B8" s="50">
         <f>SUM(INDICADORES!C4,'BALANÇO PATRIMONIAL'!C29)/ SUM('BALANÇO PATRIMONIAL'!C78,'BALANÇO PATRIMONIAL'!C119)</f>
         <v>0.41306936357252638</v>
       </c>
-      <c r="C8" s="53"/>
+      <c r="C8" s="50"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="49" t="s">
         <v>350</v>
       </c>
-      <c r="B9" s="53">
+      <c r="B9" s="50">
         <f>'BALANÇO PATRIMONIAL'!C4/'BALANÇO PATRIMONIAL'!C78</f>
         <v>1.7911859081146746</v>
       </c>
-      <c r="C9" s="53"/>
+      <c r="C9" s="50"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="49" t="s">
         <v>351</v>
       </c>
-      <c r="B10" s="53">
+      <c r="B10" s="50">
         <f>SUM('BALANÇO PATRIMONIAL'!C5,'BALANÇO PATRIMONIAL'!C6,'BALANÇO PATRIMONIAL'!C12)/'BALANÇO PATRIMONIAL'!C78</f>
         <v>1.3072502063139766</v>
       </c>
-      <c r="C10" s="53"/>
+      <c r="C10" s="50"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="49" t="s">
         <v>352</v>
       </c>
-      <c r="B11" s="53">
+      <c r="B11" s="50">
         <f>'BALANÇO PATRIMONIAL'!C4-'BALANÇO PATRIMONIAL'!C78</f>
         <v>1234826</v>
       </c>
-      <c r="C11" s="53"/>
+      <c r="C11" s="50"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="44" t="s">
         <v>353</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="14"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="13"/>
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="49" t="s">
         <v>354</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="50">
         <f>DRE!C4/'BALANÇO PATRIMONIAL'!C3</f>
         <v>0.45293378834655529</v>
       </c>
-      <c r="C13" s="16"/>
+      <c r="C13" s="50"/>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="49" t="s">
         <v>355</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="50">
         <f>(DRE!C26/DRE!C4)*100</f>
         <v>9.877257086008381</v>
       </c>
-      <c r="C14" s="16"/>
+      <c r="C14" s="50"/>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="49" t="s">
         <v>356</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="50">
         <f>(DRE!C26/'BALANÇO PATRIMONIAL'!C3)*100</f>
         <v>4.4737434704386336</v>
       </c>
-      <c r="C15" s="16"/>
+      <c r="C15" s="50"/>
     </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="49" t="s">
         <v>357</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="50">
         <f>(DRE!C26/'BALANÇO PATRIMONIAL'!C157)*100</f>
         <v>8.5391308121243679</v>
       </c>
-      <c r="C16" s="16"/>
+      <c r="C16" s="50"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="46" t="s">
         <v>358</v>
       </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="14"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="13"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="49" t="s">
         <v>359</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="50">
         <f>('BALANÇO PATRIMONIAL'!C19/(DRE!C5 * -1))*360</f>
         <v>84.648688730388045</v>
       </c>
-      <c r="C18" s="16"/>
+      <c r="C18" s="50"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="49" t="s">
         <v>360</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="52">
         <f>('BALANÇO PATRIMONIAL'!C12/DRE!C4)*360</f>
         <v>86.661230611465868</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="H19" s="31"/>
+      <c r="C19" s="50"/>
+      <c r="H19" s="27"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="49" t="s">
         <v>361</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="50">
         <f>('BALANÇO PATRIMONIAL'!C82/((DRE!C5 * -1 ) + 'BALANÇO PATRIMONIAL'!C19 - 'BALANÇO PATRIMONIAL'!D19))*360</f>
         <v>20.918906718902818</v>
       </c>
-      <c r="C20" s="16"/>
+      <c r="C20" s="50"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="53" t="s">
         <v>362</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="50">
         <f>B18+B19</f>
         <v>171.30991934185391</v>
       </c>
-      <c r="C21" s="16"/>
+      <c r="C21" s="50"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="53" t="s">
         <v>363</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="50">
         <f>B21-B20</f>
         <v>150.39101262295111</v>
       </c>
-      <c r="C22" s="16"/>
+      <c r="C22" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="4">
